--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_398__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_398__Reeval_LHS_Modell_1.3.xlsx
@@ -5882,10 +5882,10 @@
                   <c:v>66.41018676757812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.52706146240234</c:v>
+                  <c:v>57.52705383300781</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.20867919921875</c:v>
+                  <c:v>75.20868682861328</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>62.33662414550781</c:v>
@@ -5903,7 +5903,7 @@
                   <c:v>61.7672119140625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>74.58586120605469</c:v>
+                  <c:v>74.58586883544922</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>74.63808441162109</c:v>
@@ -5948,7 +5948,7 @@
                   <c:v>67.75700378417969</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>56.0029296875</c:v>
+                  <c:v>56.00293731689453</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>67.72182464599609</c:v>
@@ -5963,7 +5963,7 @@
                   <c:v>66.83179473876953</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>67.38764953613281</c:v>
+                  <c:v>67.38764190673828</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>72.30337524414062</c:v>
@@ -5993,7 +5993,7 @@
                   <c:v>69.59766387939453</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>66.31886291503906</c:v>
+                  <c:v>66.31885528564453</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>72.56365203857422</c:v>
@@ -6008,7 +6008,7 @@
                   <c:v>62.67155456542969</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>68.21712493896484</c:v>
+                  <c:v>68.21713256835938</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>59.23291778564453</c:v>
@@ -6026,7 +6026,7 @@
                   <c:v>75.30732727050781</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>64.97430419921875</c:v>
+                  <c:v>64.97429656982422</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>55.17394256591797</c:v>
@@ -6077,7 +6077,7 @@
                   <c:v>65.43685150146484</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>72.70153045654297</c:v>
+                  <c:v>72.7015380859375</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>60.99118041992188</c:v>
@@ -6110,7 +6110,7 @@
                   <c:v>68.79640960693359</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>75.24040222167969</c:v>
+                  <c:v>75.24040985107422</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>70.59966278076172</c:v>
@@ -6955,7 +6955,7 @@
         <v>92.8593</v>
       </c>
       <c r="F5">
-        <v>57.52706146240234</v>
+        <v>57.52705383300781</v>
       </c>
       <c r="G5">
         <v>107</v>
@@ -6987,7 +6987,7 @@
         <v>71.60080000000001</v>
       </c>
       <c r="F6">
-        <v>75.20867919921875</v>
+        <v>75.20868682861328</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7131,7 +7131,7 @@
         <v>71.7625</v>
       </c>
       <c r="F12">
-        <v>74.58586120605469</v>
+        <v>74.58586883544922</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>36.6299</v>
       </c>
       <c r="F27">
-        <v>56.0029296875</v>
+        <v>56.00293731689453</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>70.952</v>
       </c>
       <c r="F32">
-        <v>67.38764953613281</v>
+        <v>67.38764190673828</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>66.3913</v>
       </c>
       <c r="F42">
-        <v>66.31886291503906</v>
+        <v>66.31885528564453</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>60.7068</v>
       </c>
       <c r="F47">
-        <v>68.21712493896484</v>
+        <v>68.21713256835938</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>82.1609</v>
       </c>
       <c r="F53">
-        <v>64.97430419921875</v>
+        <v>64.97429656982422</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>51.1284</v>
       </c>
       <c r="F70">
-        <v>72.70153045654297</v>
+        <v>72.7015380859375</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>87.142</v>
       </c>
       <c r="F81">
-        <v>75.24040222167969</v>
+        <v>75.24040985107422</v>
       </c>
     </row>
     <row r="82" spans="1:6">
